--- a/Bom.xlsx
+++ b/Bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project-SmallBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E84CE6-909F-457A-9405-C6599390B64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A01F8D6-3FF3-40BD-BD01-AC6722AD5FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8148" yWindow="3396" windowWidth="12960" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lite" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.28.31026963su1DKV&amp;id=611465622037&amp;ns=1&amp;abbucket=15</t>
-  </si>
-  <si>
     <t>https://www.dfrobot.com.cn/goods-2947.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +178,6 @@
     <t>TB6612</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?id=641640085622</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加支架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,7 +190,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://detail.tmall.com/item.htm?id=611465622037&amp;ns=1&amp;abbucket=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=43636856231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?id=609475981510&amp;abbucket=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -252,14 +254,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,7 +547,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -641,17 +643,18 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <f>58+6</f>
+        <v>64</v>
       </c>
       <c r="E5">
         <f>C5*D5</f>
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -672,7 +675,7 @@
         <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>43</v>
@@ -806,14 +809,14 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G13" t="s">
-        <v>34</v>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15">
         <f>SUM(E2:E13)</f>
-        <v>1066.4000000000001</v>
+        <v>1111.4000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -823,9 +826,10 @@
     <hyperlink ref="G6" r:id="rId2" xr:uid="{83205344-3C86-40B2-8191-682B9DBDE05F}"/>
     <hyperlink ref="G8" r:id="rId3" xr:uid="{9F05B49D-C3C0-4B12-8A7E-25D2FEB4D24E}"/>
     <hyperlink ref="G9" r:id="rId4" xr:uid="{82E3D2B0-87AF-4688-92BD-727A514F2E2D}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{9A756CAA-84C8-489D-8D32-0663CE1B9C39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -834,7 +838,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -937,9 +941,9 @@
         <f t="shared" si="0"/>
         <v>369</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,8 +954,8 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -961,15 +965,15 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1053,7 +1057,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1066,7 +1070,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,12 +1081,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
